--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -91,13 +91,13 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Gdf11</t>
+  </si>
+  <si>
+    <t>Acvr2a</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf11</t>
-  </si>
-  <si>
-    <t>Acvr2a</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H2">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I2">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J2">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N2">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O2">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P2">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q2">
-        <v>12.3612732521805</v>
+        <v>41.8823888326375</v>
       </c>
       <c r="R2">
-        <v>49.445093008722</v>
+        <v>167.52955533055</v>
       </c>
       <c r="S2">
-        <v>0.01763844196536349</v>
+        <v>0.06632374951832803</v>
       </c>
       <c r="T2">
-        <v>0.01117216798438809</v>
+        <v>0.04394836195432816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H3">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I3">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J3">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>78.962081</v>
       </c>
       <c r="O3">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P3">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q3">
-        <v>30.46565018459966</v>
+        <v>74.39576965750418</v>
       </c>
       <c r="R3">
-        <v>182.793901107598</v>
+        <v>446.374617945025</v>
       </c>
       <c r="S3">
-        <v>0.04347178415648538</v>
+        <v>0.1178110067146523</v>
       </c>
       <c r="T3">
-        <v>0.04130246391356709</v>
+        <v>0.1170983426653646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H4">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I4">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J4">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N4">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O4">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P4">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q4">
-        <v>6.861165118719999</v>
+        <v>23.8930104552125</v>
       </c>
       <c r="R4">
-        <v>41.16699071231999</v>
+        <v>143.358062731275</v>
       </c>
       <c r="S4">
-        <v>0.009790274860235074</v>
+        <v>0.03783628596264368</v>
       </c>
       <c r="T4">
-        <v>0.009301722530254996</v>
+        <v>0.03760740615322608</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H5">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I5">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J5">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N5">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O5">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P5">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q5">
-        <v>20.193500169295</v>
+        <v>25.06333502211875</v>
       </c>
       <c r="R5">
-        <v>80.77400067718</v>
+        <v>100.253340088475</v>
       </c>
       <c r="S5">
-        <v>0.02881433599494599</v>
+        <v>0.03968957837489857</v>
       </c>
       <c r="T5">
-        <v>0.01825096585777171</v>
+        <v>0.0262996584014403</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H6">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I6">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J6">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N6">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O6">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P6">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q6">
-        <v>12.22495482830566</v>
+        <v>10.67170239482083</v>
       </c>
       <c r="R6">
-        <v>73.34972896983399</v>
+        <v>64.030214368925</v>
       </c>
       <c r="S6">
-        <v>0.01744392764962325</v>
+        <v>0.01689940178428133</v>
       </c>
       <c r="T6">
-        <v>0.01657344427516334</v>
+        <v>0.01679717367807987</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,14 +838,14 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.157479</v>
+        <v>2.8265125</v>
       </c>
       <c r="H7">
-        <v>2.314958</v>
+        <v>5.653025</v>
       </c>
       <c r="I7">
-        <v>0.1271864703226002</v>
+        <v>0.2973894446170153</v>
       </c>
       <c r="J7">
-        <v>0.1061280697012296</v>
+        <v>0.2604664619006015</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N7">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O7">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P7">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q7">
-        <v>7.027560055670333</v>
+        <v>11.8904795100875</v>
       </c>
       <c r="R7">
-        <v>42.165360334022</v>
+        <v>71.34287706052501</v>
       </c>
       <c r="S7">
-        <v>0.01002770569594701</v>
+        <v>0.01882942226221132</v>
       </c>
       <c r="T7">
-        <v>0.009527305140084392</v>
+        <v>0.01871551904816242</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>5.722004</v>
       </c>
       <c r="I8">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J8">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N8">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O8">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P8">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q8">
-        <v>20.369341472306</v>
+        <v>28.26229572425467</v>
       </c>
       <c r="R8">
-        <v>122.216048833836</v>
+        <v>169.573774345528</v>
       </c>
       <c r="S8">
-        <v>0.0290652459582644</v>
+        <v>0.04475536077750362</v>
       </c>
       <c r="T8">
-        <v>0.02761483789137452</v>
+        <v>0.0444846260004358</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>5.722004</v>
       </c>
       <c r="I9">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J9">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>78.962081</v>
       </c>
       <c r="O9">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P9">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q9">
         <v>50.20237148114711</v>
@@ -1013,10 +1013,10 @@
         <v>451.821343330324</v>
       </c>
       <c r="S9">
-        <v>0.07163433716163778</v>
+        <v>0.07949903537371791</v>
       </c>
       <c r="T9">
-        <v>0.1020894822814438</v>
+        <v>0.1185271929850986</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,10 +1045,10 @@
         <v>5.722004</v>
       </c>
       <c r="I10">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J10">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N10">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O10">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P10">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q10">
-        <v>11.30606955690667</v>
+        <v>16.12303753556933</v>
       </c>
       <c r="R10">
-        <v>101.75462601216</v>
+        <v>145.107337820124</v>
       </c>
       <c r="S10">
-        <v>0.01613275976248512</v>
+        <v>0.025531979736323</v>
       </c>
       <c r="T10">
-        <v>0.02299155903692819</v>
+        <v>0.03806629697168936</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>5.722004</v>
       </c>
       <c r="I11">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J11">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N11">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O11">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P11">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q11">
-        <v>33.27556086480666</v>
+        <v>16.91277422263934</v>
       </c>
       <c r="R11">
-        <v>199.65336518884</v>
+        <v>101.476645335836</v>
       </c>
       <c r="S11">
-        <v>0.04748127779436314</v>
+        <v>0.0267825840996025</v>
       </c>
       <c r="T11">
-        <v>0.04511187660511905</v>
+        <v>0.02662057050369935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -1169,10 +1169,10 @@
         <v>5.722004</v>
       </c>
       <c r="I12">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J12">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N12">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O12">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P12">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q12">
-        <v>20.14471117183244</v>
+        <v>7.201279997874221</v>
       </c>
       <c r="R12">
-        <v>181.302400546492</v>
+        <v>64.811519980868</v>
       </c>
       <c r="S12">
-        <v>0.02874471841731177</v>
+        <v>0.01140374042891666</v>
       </c>
       <c r="T12">
-        <v>0.04096545787710263</v>
+        <v>0.01700213513555446</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>5.722004</v>
       </c>
       <c r="I13">
-        <v>0.2095823457507796</v>
+        <v>0.2006788214164204</v>
       </c>
       <c r="J13">
-        <v>0.2623223571843267</v>
+        <v>0.2636447100200494</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N13">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O13">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P13">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q13">
-        <v>11.58026099502622</v>
+        <v>8.023712533689334</v>
       </c>
       <c r="R13">
-        <v>104.222348955236</v>
+        <v>72.21341280320401</v>
       </c>
       <c r="S13">
-        <v>0.01652400665671734</v>
+        <v>0.01270612100035671</v>
       </c>
       <c r="T13">
-        <v>0.02354914349235859</v>
+        <v>0.01894388842357173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H14">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I14">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J14">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N14">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O14">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P14">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q14">
-        <v>0.885457004304</v>
+        <v>4.035780895372333</v>
       </c>
       <c r="R14">
-        <v>5.312742025824</v>
+        <v>24.214685372234</v>
       </c>
       <c r="S14">
-        <v>0.001263468711080044</v>
+        <v>0.006390946855613541</v>
       </c>
       <c r="T14">
-        <v>0.001200419349191111</v>
+        <v>0.006352286647268697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H15">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I15">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J15">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>78.962081</v>
       </c>
       <c r="O15">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P15">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q15">
-        <v>2.182301353290667</v>
+        <v>7.168765542005222</v>
       </c>
       <c r="R15">
-        <v>19.640712179616</v>
+        <v>64.51888987804699</v>
       </c>
       <c r="S15">
-        <v>0.003113950722201022</v>
+        <v>0.01135225146931128</v>
       </c>
       <c r="T15">
-        <v>0.004437838467913899</v>
+        <v>0.01692536889778742</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H16">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I16">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J16">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N16">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O16">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P16">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q16">
-        <v>0.49147580416</v>
+        <v>2.302327011799666</v>
       </c>
       <c r="R16">
-        <v>4.42328223744</v>
+        <v>20.72094310619699</v>
       </c>
       <c r="S16">
-        <v>0.0007012924374539932</v>
+        <v>0.003645899011397572</v>
       </c>
       <c r="T16">
-        <v>0.0009994450246118968</v>
+        <v>0.005435766279385114</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H17">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I17">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J17">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N17">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O17">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P17">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q17">
-        <v>1.44649145776</v>
+        <v>2.415099316822167</v>
       </c>
       <c r="R17">
-        <v>8.67894874656</v>
+        <v>14.490595900933</v>
       </c>
       <c r="S17">
-        <v>0.002064015179552253</v>
+        <v>0.00382448199864801</v>
       </c>
       <c r="T17">
-        <v>0.001961017108560374</v>
+        <v>0.00380134688671245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H18">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I18">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J18">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N18">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O18">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P18">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q18">
-        <v>0.8756923060586665</v>
+        <v>1.028323690375444</v>
       </c>
       <c r="R18">
-        <v>7.881230754528</v>
+        <v>9.254913213378998</v>
       </c>
       <c r="S18">
-        <v>0.001249535351644015</v>
+        <v>0.001628423897613882</v>
       </c>
       <c r="T18">
-        <v>0.001780771934189316</v>
+        <v>0.002427859818256817</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.082912</v>
+        <v>0.2723623333333333</v>
       </c>
       <c r="H19">
-        <v>0.248736</v>
+        <v>0.8170869999999999</v>
       </c>
       <c r="I19">
-        <v>0.009110562375116463</v>
+        <v>0.0286564036226956</v>
       </c>
       <c r="J19">
-        <v>0.01140317515272633</v>
+        <v>0.03764776556887273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N19">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O19">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P19">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q19">
-        <v>0.5033949292693334</v>
+        <v>1.145764875909667</v>
       </c>
       <c r="R19">
-        <v>4.530554363424001</v>
+        <v>10.311883883187</v>
       </c>
       <c r="S19">
-        <v>0.0007182999731851364</v>
+        <v>0.001814400390111308</v>
       </c>
       <c r="T19">
-        <v>0.00102368326825974</v>
+        <v>0.002705137039462214</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H20">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I20">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J20">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N20">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O20">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P20">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q20">
-        <v>46.25908388948699</v>
+        <v>59.0227825322695</v>
       </c>
       <c r="R20">
-        <v>185.036335557948</v>
+        <v>236.091130129078</v>
       </c>
       <c r="S20">
-        <v>0.06600761506600204</v>
+        <v>0.09346678529221017</v>
       </c>
       <c r="T20">
-        <v>0.04180914420980739</v>
+        <v>0.06193425643998602</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H21">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I21">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J21">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>78.962081</v>
       </c>
       <c r="O21">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P21">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q21">
-        <v>114.010348196822</v>
+        <v>104.8422846978082</v>
       </c>
       <c r="R21">
-        <v>684.0620891809319</v>
+        <v>629.0537081868489</v>
       </c>
       <c r="S21">
-        <v>0.1626826678041277</v>
+        <v>0.1660252345445974</v>
       </c>
       <c r="T21">
-        <v>0.1545645099855051</v>
+        <v>0.1650209122895378</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H22">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I22">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J22">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N22">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O22">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P22">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q22">
-        <v>25.67625570048</v>
+        <v>33.67123985631649</v>
       </c>
       <c r="R22">
-        <v>154.05753420288</v>
+        <v>202.027439137899</v>
       </c>
       <c r="S22">
-        <v>0.03663774247372627</v>
+        <v>0.05332080954421638</v>
       </c>
       <c r="T22">
-        <v>0.03480945320644013</v>
+        <v>0.0529982605303274</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H23">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I23">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J23">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N23">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O23">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P23">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q23">
-        <v>75.56930417253</v>
+        <v>35.32052048070275</v>
       </c>
       <c r="R23">
-        <v>302.27721669012</v>
+        <v>141.282081922811</v>
       </c>
       <c r="S23">
-        <v>0.1078307031013125</v>
+        <v>0.05593256302977651</v>
       </c>
       <c r="T23">
-        <v>0.06829983800656594</v>
+        <v>0.03706280997256652</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,10 +1892,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H24">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I24">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J24">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N24">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O24">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P24">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q24">
-        <v>45.74894506502599</v>
+        <v>15.03910324254883</v>
       </c>
       <c r="R24">
-        <v>274.493670390156</v>
+        <v>90.23461945529299</v>
       </c>
       <c r="S24">
-        <v>0.06527969215175476</v>
+        <v>0.0238154924836046</v>
       </c>
       <c r="T24">
-        <v>0.06202211806354818</v>
+        <v>0.02367142746130788</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,14 +1954,14 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.331586</v>
+        <v>3.9832645</v>
       </c>
       <c r="H25">
-        <v>8.663171999999999</v>
+        <v>7.966529</v>
       </c>
       <c r="I25">
-        <v>0.4759646907104064</v>
+        <v>0.4190962599378821</v>
       </c>
       <c r="J25">
-        <v>0.3971587051902197</v>
+        <v>0.3670625235619048</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N25">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O25">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P25">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q25">
-        <v>26.298948621358</v>
+        <v>16.7566656508715</v>
       </c>
       <c r="R25">
-        <v>157.793691728148</v>
+        <v>100.539993905229</v>
       </c>
       <c r="S25">
-        <v>0.03752627011348311</v>
+        <v>0.02653537504347709</v>
       </c>
       <c r="T25">
-        <v>0.03565364171835307</v>
+        <v>0.02637485686817912</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H26">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I26">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J26">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.6794795</v>
+        <v>14.817691</v>
       </c>
       <c r="N26">
-        <v>21.358959</v>
+        <v>29.635382</v>
       </c>
       <c r="O26">
-        <v>0.1386817475209803</v>
+        <v>0.2230198506330352</v>
       </c>
       <c r="P26">
-        <v>0.1052706227093344</v>
+        <v>0.1687294465231367</v>
       </c>
       <c r="Q26">
-        <v>12.837816546256</v>
+        <v>7.630226742770334</v>
       </c>
       <c r="R26">
-        <v>77.02689927753599</v>
+        <v>45.781360456622</v>
       </c>
       <c r="S26">
-        <v>0.01831842703365337</v>
+        <v>0.01208300818937979</v>
       </c>
       <c r="T26">
-        <v>0.01740430456654967</v>
+        <v>0.01200991548111802</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H27">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I27">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J27">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>78.962081</v>
       </c>
       <c r="O27">
-        <v>0.3417956646349414</v>
+        <v>0.3961505993138794</v>
       </c>
       <c r="P27">
-        <v>0.3891756820777129</v>
+        <v>0.4495716715730233</v>
       </c>
       <c r="Q27">
-        <v>31.64014095095822</v>
+        <v>13.55358677027789</v>
       </c>
       <c r="R27">
-        <v>284.761268558624</v>
+        <v>121.982280932501</v>
       </c>
       <c r="S27">
-        <v>0.04514767844331512</v>
+        <v>0.02146307121160039</v>
       </c>
       <c r="T27">
-        <v>0.06434209209037599</v>
+        <v>0.03199985473523489</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H28">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I28">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J28">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.92768</v>
+        <v>8.453176999999998</v>
       </c>
       <c r="N28">
-        <v>17.78304</v>
+        <v>25.359531</v>
       </c>
       <c r="O28">
-        <v>0.07697575721224656</v>
+        <v>0.1272280729780779</v>
       </c>
       <c r="P28">
-        <v>0.08764620478296729</v>
+        <v>0.144384831270821</v>
       </c>
       <c r="Q28">
-        <v>7.125672031573332</v>
+        <v>4.352881782105666</v>
       </c>
       <c r="R28">
-        <v>64.13104828415999</v>
+        <v>39.17593603895099</v>
       </c>
       <c r="S28">
-        <v>0.0101677027947707</v>
+        <v>0.006893098723497263</v>
       </c>
       <c r="T28">
-        <v>0.01449047419769547</v>
+        <v>0.01027710133619308</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H29">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I29">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J29">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.446105</v>
+        <v>8.867229500000001</v>
       </c>
       <c r="N29">
-        <v>34.89221</v>
+        <v>17.734459</v>
       </c>
       <c r="O29">
-        <v>0.2265518959828062</v>
+        <v>0.133459943159757</v>
       </c>
       <c r="P29">
-        <v>0.1719711468337415</v>
+        <v>0.1009713811503176</v>
       </c>
       <c r="Q29">
-        <v>20.97198608197333</v>
+        <v>4.566094114473167</v>
       </c>
       <c r="R29">
-        <v>125.83191649184</v>
+        <v>27.396564686839</v>
       </c>
       <c r="S29">
-        <v>0.02992516643380937</v>
+        <v>0.007230735656831424</v>
       </c>
       <c r="T29">
-        <v>0.02843184678803916</v>
+        <v>0.007186995385898949</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H30">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I30">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J30">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.56170766666667</v>
+        <v>3.775572333333333</v>
       </c>
       <c r="N30">
-        <v>31.685123</v>
+        <v>11.326717</v>
       </c>
       <c r="O30">
-        <v>0.1371523842542203</v>
+        <v>0.05682582919526532</v>
       </c>
       <c r="P30">
-        <v>0.1561645691080663</v>
+        <v>0.06448881577886201</v>
       </c>
       <c r="Q30">
-        <v>12.69624286837689</v>
+        <v>1.944194475850777</v>
       </c>
       <c r="R30">
-        <v>114.266185815392</v>
+        <v>17.497750282657</v>
       </c>
       <c r="S30">
-        <v>0.01811641393596108</v>
+        <v>0.003078770600848839</v>
       </c>
       <c r="T30">
-        <v>0.02581855842883485</v>
+        <v>0.004590219685662989</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.202101333333333</v>
+        <v>0.5149403333333333</v>
       </c>
       <c r="H31">
-        <v>3.606304</v>
+        <v>1.544821</v>
       </c>
       <c r="I31">
-        <v>0.1320896755420687</v>
+        <v>0.05417907040598643</v>
       </c>
       <c r="J31">
-        <v>0.1653291689420815</v>
+        <v>0.07117853894857162</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.071436333333334</v>
+        <v>4.206767</v>
       </c>
       <c r="N31">
-        <v>18.214309</v>
+        <v>12.620301</v>
       </c>
       <c r="O31">
-        <v>0.07884255039480526</v>
+        <v>0.06331570471998517</v>
       </c>
       <c r="P31">
-        <v>0.08977177448817773</v>
+        <v>0.07185385370383916</v>
       </c>
       <c r="Q31">
-        <v>7.298481711548444</v>
+        <v>2.166234001235667</v>
       </c>
       <c r="R31">
-        <v>65.686335403936</v>
+        <v>19.496106011121</v>
       </c>
       <c r="S31">
-        <v>0.01041428690055902</v>
+        <v>0.003430386023828724</v>
       </c>
       <c r="T31">
-        <v>0.01484189287058638</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H32">
-        <v>1.257698</v>
-      </c>
-      <c r="I32">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J32">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>10.6794795</v>
-      </c>
-      <c r="N32">
-        <v>21.358959</v>
-      </c>
-      <c r="O32">
-        <v>0.1386817475209803</v>
-      </c>
-      <c r="P32">
-        <v>0.1052706227093344</v>
-      </c>
-      <c r="Q32">
-        <v>4.477186669397</v>
-      </c>
-      <c r="R32">
-        <v>26.863120016382</v>
-      </c>
-      <c r="S32">
-        <v>0.006388548786616929</v>
-      </c>
-      <c r="T32">
-        <v>0.006069748708023614</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H33">
-        <v>1.257698</v>
-      </c>
-      <c r="I33">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J33">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>26.32069366666667</v>
-      </c>
-      <c r="N33">
-        <v>78.962081</v>
-      </c>
-      <c r="O33">
-        <v>0.3417956646349414</v>
-      </c>
-      <c r="P33">
-        <v>0.3891756820777129</v>
-      </c>
-      <c r="Q33">
-        <v>11.03449459439311</v>
-      </c>
-      <c r="R33">
-        <v>99.310451349538</v>
-      </c>
-      <c r="S33">
-        <v>0.01574524634717444</v>
-      </c>
-      <c r="T33">
-        <v>0.02243929533890701</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H34">
-        <v>1.257698</v>
-      </c>
-      <c r="I34">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J34">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>5.92768</v>
-      </c>
-      <c r="N34">
-        <v>17.78304</v>
-      </c>
-      <c r="O34">
-        <v>0.07697575721224656</v>
-      </c>
-      <c r="P34">
-        <v>0.08764620478296729</v>
-      </c>
-      <c r="Q34">
-        <v>2.485077093546666</v>
-      </c>
-      <c r="R34">
-        <v>22.36569384192</v>
-      </c>
-      <c r="S34">
-        <v>0.003545984883575407</v>
-      </c>
-      <c r="T34">
-        <v>0.00505355078703659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H35">
-        <v>1.257698</v>
-      </c>
-      <c r="I35">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J35">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>17.446105</v>
-      </c>
-      <c r="N35">
-        <v>34.89221</v>
-      </c>
-      <c r="O35">
-        <v>0.2265518959828062</v>
-      </c>
-      <c r="P35">
-        <v>0.1719711468337415</v>
-      </c>
-      <c r="Q35">
-        <v>7.313977122096666</v>
-      </c>
-      <c r="R35">
-        <v>43.88386273258</v>
-      </c>
-      <c r="S35">
-        <v>0.01043639747882297</v>
-      </c>
-      <c r="T35">
-        <v>0.009915602467685275</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H36">
-        <v>1.257698</v>
-      </c>
-      <c r="I36">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J36">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>10.56170766666667</v>
-      </c>
-      <c r="N36">
-        <v>31.685123</v>
-      </c>
-      <c r="O36">
-        <v>0.1371523842542203</v>
-      </c>
-      <c r="P36">
-        <v>0.1561645691080663</v>
-      </c>
-      <c r="Q36">
-        <v>4.427812869650444</v>
-      </c>
-      <c r="R36">
-        <v>39.85031582685399</v>
-      </c>
-      <c r="S36">
-        <v>0.006318096747925407</v>
-      </c>
-      <c r="T36">
-        <v>0.009004218529227911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.4192326666666666</v>
-      </c>
-      <c r="H37">
-        <v>1.257698</v>
-      </c>
-      <c r="I37">
-        <v>0.04606625529902879</v>
-      </c>
-      <c r="J37">
-        <v>0.05765852382941595</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>6.071436333333334</v>
-      </c>
-      <c r="N37">
-        <v>18.214309</v>
-      </c>
-      <c r="O37">
-        <v>0.07884255039480526</v>
-      </c>
-      <c r="P37">
-        <v>0.08977177448817773</v>
-      </c>
-      <c r="Q37">
-        <v>2.545344444520222</v>
-      </c>
-      <c r="R37">
-        <v>22.908100000682</v>
-      </c>
-      <c r="S37">
-        <v>0.003631981054913642</v>
-      </c>
-      <c r="T37">
-        <v>0.00517610799853555</v>
+        <v>0.005114452324463684</v>
       </c>
     </row>
   </sheetData>
